--- a/medicine/Enfance/Salon_de_l'enfance/Salon_de_l'enfance.xlsx
+++ b/medicine/Enfance/Salon_de_l'enfance/Salon_de_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salon_de_l%27enfance</t>
+          <t>Salon_de_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Salon de l'enfance est un salon annuel de pédagogie ludique et d'animations diverses pour les enfants. Il est créé en 1946 à Paris[1] et s'installe en 1950 au  Grand Palais[2] puis déménage en 1961 à Puteaux, au Cnit en alternance avec le parc des Expositions de la Porte de Versailles à partir de 1963.
-En 1953, Expo action, l'association qui organise le Salon de l'Enfance, crée le « Grand Prix de la littérature enfantine » d'un montant de 5000 francs, attribué à un auteur de langue française par un jury composé de onze jeunes âgés de dix à quatorze ans [3]. Ce prix littéraire est attribué à trente-trois lauréats jusqu'en 1983, le prix 1971 récompensant trois auteurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Salon de l'enfance est un salon annuel de pédagogie ludique et d'animations diverses pour les enfants. Il est créé en 1946 à Paris et s'installe en 1950 au  Grand Palais puis déménage en 1961 à Puteaux, au Cnit en alternance avec le parc des Expositions de la Porte de Versailles à partir de 1963.
+En 1953, Expo action, l'association qui organise le Salon de l'Enfance, crée le « Grand Prix de la littérature enfantine » d'un montant de 5000 francs, attribué à un auteur de langue française par un jury composé de onze jeunes âgés de dix à quatorze ans . Ce prix littéraire est attribué à trente-trois lauréats jusqu'en 1983, le prix 1971 récompensant trois auteurs.
 </t>
         </is>
       </c>
